--- a/master/vsds/tlro 200to9/tlro dma load balance.xlsx
+++ b/master/vsds/tlro 200to9/tlro dma load balance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -93,11 +93,22 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="3175"/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
             <c:size val="2"/>
+            <c:spPr>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -312,48 +323,128 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183955840"/>
-        <c:axId val="183957376"/>
+        <c:axId val="119029120"/>
+        <c:axId val="119043968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183955840"/>
+        <c:axId val="119029120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> of TCP Connections</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183957376"/>
+        <c:crossAx val="119043968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="70"/>
+        <c:tickLblSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183957376"/>
+        <c:axId val="119043968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>TCP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Data Receiving Throughput(Gbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183955840"/>
+        <c:crossAx val="119029120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -371,15 +462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>169829</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>46915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>46915</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -690,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
